--- a/13LED点阵屏显示图形/点阵屏画图.xlsx
+++ b/13LED点阵屏显示图形/点阵屏画图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codingForZDXSDUGitHub\51MCU\13LED点阵屏显示图形\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A01A9C8-CB60-4CCA-B8A3-99A75760F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F12894E-A9AF-419B-9FC0-87BD91A7E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F44846DC-3B6B-4807-B307-10B33D211B25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>0001 0110</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>3C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111 1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,14 +207,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -199,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,30 +537,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4327533-29B8-4E60-826A-BA390EC4B03A}">
-  <dimension ref="C1:M25"/>
+  <dimension ref="C1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.9140625" customWidth="1"/>
-    <col min="3" max="10" width="3.08203125" customWidth="1"/>
+    <col min="3" max="10" width="2.58203125" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
@@ -551,14 +572,14 @@
       </c>
     </row>
     <row r="2" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="1">
         <v>0</v>
       </c>
@@ -570,14 +591,14 @@
       </c>
     </row>
     <row r="3" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -589,14 +610,14 @@
       </c>
     </row>
     <row r="4" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -608,14 +629,14 @@
       </c>
     </row>
     <row r="5" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -627,14 +648,14 @@
       </c>
     </row>
     <row r="6" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -646,14 +667,14 @@
       </c>
     </row>
     <row r="7" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -665,14 +686,14 @@
       </c>
     </row>
     <row r="8" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -684,14 +705,14 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -703,16 +724,16 @@
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="1" t="s">
         <v>8</v>
       </c>
@@ -724,14 +745,14 @@
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="1">
         <v>0</v>
       </c>
@@ -743,14 +764,14 @@
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="1">
         <v>1</v>
       </c>
@@ -762,14 +783,14 @@
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="1">
         <v>2</v>
       </c>
@@ -781,14 +802,14 @@
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="1">
         <v>3</v>
       </c>
@@ -800,14 +821,14 @@
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="1">
         <v>4</v>
       </c>
@@ -819,14 +840,14 @@
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="1">
         <v>5</v>
       </c>
@@ -838,14 +859,14 @@
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="1">
         <v>6</v>
       </c>
@@ -857,14 +878,14 @@
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="1">
         <v>7</v>
       </c>
@@ -875,10 +896,184 @@
         <v>17</v>
       </c>
     </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="1">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="1">
+        <v>5</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1">
+        <v>6</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1">
+        <v>7</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="1">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
